--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Angpt2-Tie1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Angpt2-Tie1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.364689666666666</v>
+        <v>6.427515666666666</v>
       </c>
       <c r="H2">
-        <v>22.094069</v>
+        <v>19.282547</v>
       </c>
       <c r="I2">
-        <v>0.5165094431700068</v>
+        <v>0.399676466497628</v>
       </c>
       <c r="J2">
-        <v>0.5165094431700069</v>
+        <v>0.399676466497628</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>56.675789</v>
+        <v>55.42213566666666</v>
       </c>
       <c r="N2">
-        <v>170.027367</v>
+        <v>166.266407</v>
       </c>
       <c r="O2">
-        <v>0.9913215893304136</v>
+        <v>0.9848186220994556</v>
       </c>
       <c r="P2">
-        <v>0.9913215893304136</v>
+        <v>0.9848186220994556</v>
       </c>
       <c r="Q2">
-        <v>417.3995975984803</v>
+        <v>356.2266452776254</v>
       </c>
       <c r="R2">
-        <v>3756.596378386323</v>
+        <v>3206.039807498628</v>
       </c>
       <c r="S2">
-        <v>0.5120269621074581</v>
+        <v>0.3936088270217732</v>
       </c>
       <c r="T2">
-        <v>0.5120269621074582</v>
+        <v>0.3936088270217732</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.364689666666666</v>
+        <v>6.427515666666666</v>
       </c>
       <c r="H3">
-        <v>22.094069</v>
+        <v>19.282547</v>
       </c>
       <c r="I3">
-        <v>0.5165094431700068</v>
+        <v>0.399676466497628</v>
       </c>
       <c r="J3">
-        <v>0.5165094431700069</v>
+        <v>0.399676466497628</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.402002</v>
       </c>
       <c r="O3">
-        <v>0.002343818342808337</v>
+        <v>0.00238111271461604</v>
       </c>
       <c r="P3">
-        <v>0.002343818342808337</v>
+        <v>0.00238111271461604</v>
       </c>
       <c r="Q3">
-        <v>0.9868733251264443</v>
+        <v>0.8612913843437776</v>
       </c>
       <c r="R3">
-        <v>8.881859926137999</v>
+        <v>7.751622459093999</v>
       </c>
       <c r="S3">
-        <v>0.001210604307135582</v>
+        <v>0.0009516747161103137</v>
       </c>
       <c r="T3">
-        <v>0.001210604307135582</v>
+        <v>0.0009516747161103137</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.364689666666666</v>
+        <v>6.427515666666666</v>
       </c>
       <c r="H4">
-        <v>22.094069</v>
+        <v>19.282547</v>
       </c>
       <c r="I4">
-        <v>0.5165094431700068</v>
+        <v>0.399676466497628</v>
       </c>
       <c r="J4">
-        <v>0.5165094431700069</v>
+        <v>0.399676466497628</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.362161</v>
+        <v>0.720354</v>
       </c>
       <c r="N4">
-        <v>1.086483</v>
+        <v>2.161062</v>
       </c>
       <c r="O4">
-        <v>0.006334592326778051</v>
+        <v>0.01280026518592835</v>
       </c>
       <c r="P4">
-        <v>0.006334592326778052</v>
+        <v>0.01280026518592835</v>
       </c>
       <c r="Q4">
-        <v>2.667203374369666</v>
+        <v>4.630086620546</v>
       </c>
       <c r="R4">
-        <v>24.004830369327</v>
+        <v>41.670779584914</v>
       </c>
       <c r="S4">
-        <v>0.003271876755413129</v>
+        <v>0.005115964759744448</v>
       </c>
       <c r="T4">
-        <v>0.00327187675541313</v>
+        <v>0.005115964759744448</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>5.489886</v>
       </c>
       <c r="I5">
-        <v>0.128341138109364</v>
+        <v>0.1137908927671639</v>
       </c>
       <c r="J5">
-        <v>0.128341138109364</v>
+        <v>0.1137908927671639</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>56.675789</v>
+        <v>55.42213566666666</v>
       </c>
       <c r="N5">
-        <v>170.027367</v>
+        <v>166.266407</v>
       </c>
       <c r="O5">
-        <v>0.9913215893304136</v>
+        <v>0.9848186220994556</v>
       </c>
       <c r="P5">
-        <v>0.9913215893304136</v>
+        <v>0.9848186220994556</v>
       </c>
       <c r="Q5">
-        <v>103.714540190018</v>
+        <v>101.4204022288447</v>
       </c>
       <c r="R5">
-        <v>933.430861710162</v>
+        <v>912.783620059602</v>
       </c>
       <c r="S5">
-        <v>0.1272273410070488</v>
+        <v>0.1120633902224252</v>
       </c>
       <c r="T5">
-        <v>0.1272273410070488</v>
+        <v>0.1120633902224252</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>5.489886</v>
       </c>
       <c r="I6">
-        <v>0.128341138109364</v>
+        <v>0.1137908927671639</v>
       </c>
       <c r="J6">
-        <v>0.128341138109364</v>
+        <v>0.1137908927671639</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.402002</v>
       </c>
       <c r="O6">
-        <v>0.002343818342808337</v>
+        <v>0.00238111271461604</v>
       </c>
       <c r="P6">
-        <v>0.002343818342808337</v>
+        <v>0.00238111271461604</v>
       </c>
       <c r="Q6">
         <v>0.2452161279746667</v>
@@ -818,10 +818,10 @@
         <v>2.206945151772</v>
       </c>
       <c r="S6">
-        <v>0.0003008083136376253</v>
+        <v>0.0002709489415754043</v>
       </c>
       <c r="T6">
-        <v>0.0003008083136376253</v>
+        <v>0.0002709489415754043</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,40 +850,40 @@
         <v>5.489886</v>
       </c>
       <c r="I7">
-        <v>0.128341138109364</v>
+        <v>0.1137908927671639</v>
       </c>
       <c r="J7">
-        <v>0.128341138109364</v>
+        <v>0.1137908927671639</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.362161</v>
+        <v>0.720354</v>
       </c>
       <c r="N7">
-        <v>1.086483</v>
+        <v>2.161062</v>
       </c>
       <c r="O7">
-        <v>0.006334592326778051</v>
+        <v>0.01280026518592835</v>
       </c>
       <c r="P7">
-        <v>0.006334592326778052</v>
+        <v>0.01280026518592835</v>
       </c>
       <c r="Q7">
-        <v>0.6627408678819999</v>
+        <v>1.318220446548</v>
       </c>
       <c r="R7">
-        <v>5.964667810938</v>
+        <v>11.863984018932</v>
       </c>
       <c r="S7">
-        <v>0.000812988788677539</v>
+        <v>0.001456553603163234</v>
       </c>
       <c r="T7">
-        <v>0.0008129887886775391</v>
+        <v>0.001456553603163234</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.063925333333334</v>
+        <v>7.824318999999999</v>
       </c>
       <c r="H8">
-        <v>15.191776</v>
+        <v>23.472957</v>
       </c>
       <c r="I8">
-        <v>0.3551494187206293</v>
+        <v>0.486532640735208</v>
       </c>
       <c r="J8">
-        <v>0.3551494187206293</v>
+        <v>0.486532640735208</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>56.675789</v>
+        <v>55.42213566666666</v>
       </c>
       <c r="N8">
-        <v>170.027367</v>
+        <v>166.266407</v>
       </c>
       <c r="O8">
-        <v>0.9913215893304136</v>
+        <v>0.9848186220994556</v>
       </c>
       <c r="P8">
-        <v>0.9913215893304136</v>
+        <v>0.9848186220994556</v>
       </c>
       <c r="Q8">
-        <v>287.0019637037547</v>
+        <v>433.6404691172776</v>
       </c>
       <c r="R8">
-        <v>2583.017673333792</v>
+        <v>3902.764222055498</v>
       </c>
       <c r="S8">
-        <v>0.3520672862159068</v>
+        <v>0.479146404855257</v>
       </c>
       <c r="T8">
-        <v>0.3520672862159068</v>
+        <v>0.479146404855257</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.063925333333334</v>
+        <v>7.824318999999999</v>
       </c>
       <c r="H9">
-        <v>15.191776</v>
+        <v>23.472957</v>
       </c>
       <c r="I9">
-        <v>0.3551494187206293</v>
+        <v>0.486532640735208</v>
       </c>
       <c r="J9">
-        <v>0.3551494187206293</v>
+        <v>0.486532640735208</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.402002</v>
       </c>
       <c r="O9">
-        <v>0.002343818342808337</v>
+        <v>0.00238111271461604</v>
       </c>
       <c r="P9">
-        <v>0.002343818342808337</v>
+        <v>0.00238111271461604</v>
       </c>
       <c r="Q9">
-        <v>0.6785693706168888</v>
+        <v>1.048463962212667</v>
       </c>
       <c r="R9">
-        <v>6.107124335552</v>
+        <v>9.436175659913998</v>
       </c>
       <c r="S9">
-        <v>0.0008324057220351294</v>
+        <v>0.001158489056930322</v>
       </c>
       <c r="T9">
-        <v>0.0008324057220351296</v>
+        <v>0.001158489056930322</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.063925333333334</v>
+        <v>7.824318999999999</v>
       </c>
       <c r="H10">
-        <v>15.191776</v>
+        <v>23.472957</v>
       </c>
       <c r="I10">
-        <v>0.3551494187206293</v>
+        <v>0.486532640735208</v>
       </c>
       <c r="J10">
-        <v>0.3551494187206293</v>
+        <v>0.486532640735208</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.362161</v>
+        <v>0.720354</v>
       </c>
       <c r="N10">
-        <v>1.086483</v>
+        <v>2.161062</v>
       </c>
       <c r="O10">
-        <v>0.006334592326778051</v>
+        <v>0.01280026518592835</v>
       </c>
       <c r="P10">
-        <v>0.006334592326778052</v>
+        <v>0.01280026518592835</v>
       </c>
       <c r="Q10">
-        <v>1.833956262645333</v>
+        <v>5.636279488926</v>
       </c>
       <c r="R10">
-        <v>16.505606363808</v>
+        <v>50.726515400334</v>
       </c>
       <c r="S10">
-        <v>0.002249726782687383</v>
+        <v>0.00622774682302067</v>
       </c>
       <c r="T10">
-        <v>0.002249726782687384</v>
+        <v>0.00622774682302067</v>
       </c>
     </row>
   </sheetData>
